--- a/app/development/catalogo/data/catalogo_responsabilidades.xlsx
+++ b/app/development/catalogo/data/catalogo_responsabilidades.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,30 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">CÓDIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO DO MATERIAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">CÓDIGO DO FORNECEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIFICAÇÃO DO FORNECEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPONSABILIDADE</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve"> CHINA</t>
+    <t xml:space="preserve">CHINA</t>
   </si>
   <si>
     <t xml:space="preserve">FL </t>
   </si>
   <si>
-    <t xml:space="preserve"> FORNECEDOR LOCAL</t>
+    <t xml:space="preserve">FORNECEDOR LOCAL</t>
   </si>
   <si>
     <t xml:space="preserve">JIG </t>
   </si>
   <si>
-    <t xml:space="preserve"> ENGENHARIA/PROJETO</t>
+    <t xml:space="preserve">ENGENHARIA/PROJETO</t>
   </si>
   <si>
     <t xml:space="preserve">ENG </t>
@@ -52,97 +55,100 @@
     <t xml:space="preserve">IP </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROCESSO INJEÇÃO</t>
+    <t xml:space="preserve">PROCESSO INJEÇÃO</t>
   </si>
   <si>
     <t xml:space="preserve">LCM </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROCESSO LCM</t>
+    <t xml:space="preserve">PROCESSO LCM</t>
   </si>
   <si>
     <t xml:space="preserve">MA </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROCESSO MA</t>
+    <t xml:space="preserve">PROCESSO MA</t>
   </si>
   <si>
     <t xml:space="preserve">AF </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROC. ALTO FALANTE</t>
+    <t xml:space="preserve">PROC. ALTO FALANTE</t>
   </si>
   <si>
     <t xml:space="preserve">DP </t>
   </si>
   <si>
-    <t xml:space="preserve"> DIP PTH</t>
+    <t xml:space="preserve">DIP PTH</t>
   </si>
   <si>
     <t xml:space="preserve">T </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROCESSO PTH</t>
+    <t xml:space="preserve">PROCESSO PTH</t>
   </si>
   <si>
     <t xml:space="preserve">P </t>
   </si>
   <si>
-    <t xml:space="preserve"> PROCESSO PA</t>
+    <t xml:space="preserve">PROCESSO PA</t>
   </si>
   <si>
     <t xml:space="preserve">AC </t>
   </si>
   <si>
-    <t xml:space="preserve"> ACÚMULO</t>
+    <t xml:space="preserve">ACÚMULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÃO MOSTRAR NO ÍNDICE</t>
   </si>
   <si>
     <t xml:space="preserve">OC </t>
   </si>
   <si>
-    <t xml:space="preserve"> OCORRÊNCIA</t>
+    <t xml:space="preserve">OCORRÊNCIA</t>
   </si>
   <si>
     <t xml:space="preserve">RT </t>
   </si>
   <si>
-    <t xml:space="preserve"> RETRABALHO PEÇA</t>
+    <t xml:space="preserve">RETRABALHO PEÇA</t>
   </si>
   <si>
     <t xml:space="preserve">INT MOD </t>
   </si>
   <si>
-    <t xml:space="preserve"> INTRODUÇÃO DE MODELO</t>
+    <t xml:space="preserve">INTRODUÇÃO DE MODELO</t>
   </si>
   <si>
     <t xml:space="preserve">VER </t>
   </si>
   <si>
-    <t xml:space="preserve"> REVISÃO</t>
+    <t xml:space="preserve">REVISÃO</t>
   </si>
   <si>
     <t xml:space="preserve">FF </t>
   </si>
   <si>
-    <t xml:space="preserve"> FALSA FALHA </t>
+    <t xml:space="preserve">FALSA FALHA </t>
   </si>
   <si>
     <t xml:space="preserve">AF RET </t>
   </si>
   <si>
-    <t xml:space="preserve"> ALTO FALANTE RETRABALHO</t>
+    <t xml:space="preserve">ALTO FALANTE RETRABALHO</t>
   </si>
   <si>
     <t xml:space="preserve">RC </t>
   </si>
   <si>
-    <t xml:space="preserve"> RETORNO DE CAMPO</t>
+    <t xml:space="preserve">RETORNO DE CAMPO</t>
   </si>
   <si>
     <t xml:space="preserve">A </t>
   </si>
   <si>
-    <t xml:space="preserve"> ARMAZENAMENTO</t>
+    <t xml:space="preserve">ARMAZENAMENTO</t>
   </si>
 </sst>
 </file>
@@ -239,20 +245,129 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,169 +377,270 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
